--- a/biology/Médecine/Fonds_Léon_Fredericq/Fonds_Léon_Fredericq.xlsx
+++ b/biology/Médecine/Fonds_Léon_Fredericq/Fonds_Léon_Fredericq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fonds_L%C3%A9on_Fredericq</t>
+          <t>Fonds_Léon_Fredericq</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Fonds Léon Fredericq est issu en 2005 de la Fondation Léon Fredericq créée en 1987 par des universitaires liégeois, conscients des enjeux que représente la recherche médicale, qui souffre de manière chronique d’un déficit de moyens pour lutter de manière efficace contre la maladie.
 Le Fonds relève cet immense défi grâce à des dons et des legs et des partenaires - citoyens ou entreprise. 
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fonds_L%C3%A9on_Fredericq</t>
+          <t>Fonds_Léon_Fredericq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Crédo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Donner à l’intelligence et à la créativité des jeunes chercheurs les moyens de servir la connaissance scientifique et le progrès médical.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fonds_L%C3%A9on_Fredericq</t>
+          <t>Fonds_Léon_Fredericq</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +563,60 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fonds Léon Fredericq
-Bourses Fonds Léon Fredericq
-Bourses de doctorat
+          <t>Fonds Léon Fredericq</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bourses Fonds Léon Fredericq</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bourses de doctorat
 Subsides de voyage
 Subsides de fonctionnement
-Subventions "Recherches cliniques"
-Bourses et Prix «Spécifiques» du Fonds
-Bourse "Standard de Liège" ((Affections ostéo-articulaires Dégénératives)
+Subventions "Recherches cliniques"</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fonds_Léon_Fredericq</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonds_L%C3%A9on_Fredericq</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bourses et prix</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fonds Léon Fredericq</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bourses et Prix «Spécifiques» du Fonds</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bourse "Standard de Liège" ((Affections ostéo-articulaires Dégénératives)
 Bourse François Mignolet (promotion de la santé au travail)
 Prix José Delporte (immunologie)
 Prix Nicolas Jacquet (cancérologie digestive)
@@ -564,13 +624,81 @@
 Prix Frederic Van Den Brûle (cancérologie)
 Prix Olivier Heymans (chirurgie plastique)
 Prix Chèvremont - Comhaire (cytologie et biologie cellulaire normale et pathologique)
-Prix Jean-Marie Petit (travail scientifique original démontrant l'utilité du sport pour la santé)
-Centre Anticancéreux près L'ULg
-Bourses de doctorat
+Prix Jean-Marie Petit (travail scientifique original démontrant l'utilité du sport pour la santé)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fonds_Léon_Fredericq</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonds_L%C3%A9on_Fredericq</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bourses et prix</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Centre Anticancéreux près L'ULg</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bourses de doctorat
 Subsides de voyage
-Subsides de fonctionnement et d'équipement, en complément de contrats de recherche déjà subventionnés (FRSM, FNRS...)
-Fondations associées
-Prix de la Fondation Bonjean-Oleffe (recherche sur le dépistage, la thérapie ou la prévention du cancer) ;
+Subsides de fonctionnement et d'équipement, en complément de contrats de recherche déjà subventionnés (FRSM, FNRS...)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fonds_Léon_Fredericq</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonds_L%C3%A9on_Fredericq</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bourses et prix</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fondations associées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix de la Fondation Bonjean-Oleffe (recherche sur le dépistage, la thérapie ou la prévention du cancer) ;
 Bourse de la Fondation Médicale Horlait-Dapsens (perfection d'un jeune médecin belge dans un centre spécialisé) ;
 Prix de la Fondation D. et M. Jaumain (vétérinaires) ;
 Prix de la Fondation Lejeune-Lechien (affections ostéo-articulaires) ;
